--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_original/ori2/123/word_level_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_original/ori2/123/word_level_predictions_123.xlsx
@@ -4298,210 +4298,210 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="n">
+      <c r="A75" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" s="2" t="inlineStr">
         <is>
           <t>Altitude Less than nnn . Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="C75" s="2" t="inlineStr">
         <is>
           <t>Altitude</t>
         </is>
       </c>
-      <c r="D75" t="n">
-        <v>0</v>
-      </c>
-      <c r="E75" t="inlineStr">
+      <c r="D75" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E75" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G75" t="b">
-        <v>1</v>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I75" t="b">
-        <v>1</v>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K75" t="b">
-        <v>1</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F75" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G75" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H75" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I75" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J75" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K75" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L75" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="n">
+      <c r="A76" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" s="2" t="inlineStr">
         <is>
           <t>Altitude Less than nnn . Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="C76" s="2" t="inlineStr">
         <is>
           <t>Less</t>
         </is>
       </c>
-      <c r="D76" t="n">
-        <v>1</v>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G76" t="b">
-        <v>1</v>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I76" t="b">
-        <v>1</v>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K76" t="b">
-        <v>1</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="D76" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E76" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F76" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G76" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H76" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I76" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J76" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K76" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L76" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="n">
+      <c r="A77" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" s="2" t="inlineStr">
         <is>
           <t>Altitude Less than nnn . Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="C77" s="2" t="inlineStr">
         <is>
           <t>than</t>
         </is>
       </c>
-      <c r="D77" t="n">
+      <c r="D77" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G77" t="b">
-        <v>1</v>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I77" t="b">
-        <v>1</v>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K77" t="b">
-        <v>1</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E77" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F77" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G77" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H77" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I77" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J77" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K77" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L77" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="n">
+      <c r="A78" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" s="2" t="inlineStr">
         <is>
           <t>Altitude Less than nnn . Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="C78" s="2" t="inlineStr">
         <is>
           <t>nnn</t>
         </is>
       </c>
-      <c r="D78" t="n">
+      <c r="D78" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="E78" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G78" t="b">
-        <v>1</v>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I78" t="b">
-        <v>1</v>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K78" t="b">
-        <v>1</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F78" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G78" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H78" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I78" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J78" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K78" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L78" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -6378,106 +6378,106 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="n">
+      <c r="A115" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B115" t="inlineStr">
+      <c r="B115" s="2" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
+      <c r="C115" s="2" t="inlineStr">
         <is>
           <t>Hardware</t>
         </is>
       </c>
-      <c r="D115" t="n">
+      <c r="D115" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E115" t="inlineStr">
+      <c r="E115" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
+      <c r="F115" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G115" t="b">
-        <v>1</v>
-      </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I115" t="b">
-        <v>1</v>
-      </c>
-      <c r="J115" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K115" t="b">
-        <v>1</v>
-      </c>
-      <c r="L115" t="inlineStr">
+      <c r="G115" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H115" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I115" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J115" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K115" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L115" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="n">
+      <c r="A116" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B116" t="inlineStr">
+      <c r="B116" s="2" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr">
+      <c r="C116" s="2" t="inlineStr">
         <is>
           <t>malfunction</t>
         </is>
       </c>
-      <c r="D116" t="n">
+      <c r="D116" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E116" t="inlineStr">
+      <c r="E116" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G116" t="b">
-        <v>1</v>
-      </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I116" t="b">
-        <v>1</v>
-      </c>
-      <c r="J116" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K116" t="b">
-        <v>1</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F116" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G116" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H116" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I116" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J116" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K116" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L116" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -12693,7 +12693,7 @@
       </c>
       <c r="F236" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G236" s="2" t="b">
@@ -12717,7 +12717,7 @@
       </c>
       <c r="L236" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -13918,728 +13918,728 @@
       </c>
     </row>
     <row r="260">
-      <c r="A260" s="2" t="n">
+      <c r="A260" t="n">
         <v>20</v>
       </c>
-      <c r="B260" s="2" t="inlineStr">
+      <c r="B260" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C260" s="2" t="inlineStr">
+      <c r="C260" t="inlineStr">
         <is>
           <t>GEO:</t>
         </is>
       </c>
-      <c r="D260" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E260" s="2" t="inlineStr">
+      <c r="D260" t="n">
+        <v>0</v>
+      </c>
+      <c r="E260" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F260" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G260" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H260" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I260" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J260" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K260" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L260" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G260" t="b">
+        <v>1</v>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I260" t="b">
+        <v>1</v>
+      </c>
+      <c r="J260" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K260" t="b">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="261">
-      <c r="A261" s="2" t="n">
+      <c r="A261" t="n">
         <v>20</v>
       </c>
-      <c r="B261" s="2" t="inlineStr">
+      <c r="B261" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C261" s="2" t="inlineStr">
+      <c r="C261" t="inlineStr">
         <is>
           <t>You</t>
         </is>
       </c>
-      <c r="D261" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E261" s="2" t="inlineStr">
+      <c r="D261" t="n">
+        <v>1</v>
+      </c>
+      <c r="E261" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F261" s="2" t="inlineStr">
+      <c r="F261" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G261" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H261" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I261" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J261" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K261" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L261" s="2" t="inlineStr">
+      <c r="G261" t="b">
+        <v>1</v>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I261" t="b">
+        <v>1</v>
+      </c>
+      <c r="J261" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K261" t="b">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="262">
-      <c r="A262" s="2" t="n">
+      <c r="A262" t="n">
         <v>20</v>
       </c>
-      <c r="B262" s="2" t="inlineStr">
+      <c r="B262" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C262" s="2" t="inlineStr">
+      <c r="C262" t="inlineStr">
         <is>
           <t>are</t>
         </is>
       </c>
-      <c r="D262" s="2" t="n">
+      <c r="D262" t="n">
         <v>2</v>
       </c>
-      <c r="E262" s="2" t="inlineStr">
+      <c r="E262" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F262" s="2" t="inlineStr">
+      <c r="F262" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G262" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H262" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I262" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J262" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K262" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L262" s="2" t="inlineStr">
+      <c r="G262" t="b">
+        <v>1</v>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I262" t="b">
+        <v>1</v>
+      </c>
+      <c r="J262" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K262" t="b">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="263">
-      <c r="A263" s="2" t="n">
+      <c r="A263" t="n">
         <v>20</v>
       </c>
-      <c r="B263" s="2" t="inlineStr">
+      <c r="B263" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C263" s="2" t="inlineStr">
+      <c r="C263" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D263" s="2" t="n">
+      <c r="D263" t="n">
         <v>3</v>
       </c>
-      <c r="E263" s="2" t="inlineStr">
+      <c r="E263" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F263" s="2" t="inlineStr">
+      <c r="F263" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G263" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H263" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I263" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J263" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K263" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L263" s="2" t="inlineStr">
+      <c r="G263" t="b">
+        <v>1</v>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I263" t="b">
+        <v>1</v>
+      </c>
+      <c r="J263" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K263" t="b">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="264">
-      <c r="A264" s="2" t="n">
+      <c r="A264" t="n">
         <v>20</v>
       </c>
-      <c r="B264" s="2" t="inlineStr">
+      <c r="B264" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C264" s="2" t="inlineStr">
+      <c r="C264" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D264" s="2" t="n">
+      <c r="D264" t="n">
         <v>4</v>
       </c>
-      <c r="E264" s="2" t="inlineStr">
+      <c r="E264" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F264" s="2" t="inlineStr">
+      <c r="F264" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G264" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H264" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I264" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J264" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K264" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L264" s="2" t="inlineStr">
+      <c r="G264" t="b">
+        <v>1</v>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I264" t="b">
+        <v>1</v>
+      </c>
+      <c r="J264" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K264" t="b">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="265">
-      <c r="A265" s="2" t="n">
+      <c r="A265" t="n">
         <v>20</v>
       </c>
-      <c r="B265" s="2" t="inlineStr">
+      <c r="B265" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C265" s="2" t="inlineStr">
+      <c r="C265" t="inlineStr">
         <is>
           <t>Warning</t>
         </is>
       </c>
-      <c r="D265" s="2" t="n">
+      <c r="D265" t="n">
         <v>5</v>
       </c>
-      <c r="E265" s="2" t="inlineStr">
+      <c r="E265" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F265" s="2" t="inlineStr">
+      <c r="F265" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G265" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H265" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I265" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J265" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K265" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L265" s="2" t="inlineStr">
+      <c r="G265" t="b">
+        <v>1</v>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I265" t="b">
+        <v>1</v>
+      </c>
+      <c r="J265" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K265" t="b">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="266">
-      <c r="A266" s="2" t="n">
+      <c r="A266" t="n">
         <v>20</v>
       </c>
-      <c r="B266" s="2" t="inlineStr">
+      <c r="B266" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C266" s="2" t="inlineStr">
+      <c r="C266" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="D266" s="2" t="n">
+      <c r="D266" t="n">
         <v>6</v>
       </c>
-      <c r="E266" s="2" t="inlineStr">
+      <c r="E266" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F266" s="2" t="inlineStr">
+      <c r="F266" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G266" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H266" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I266" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J266" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K266" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L266" s="2" t="inlineStr">
+      <c r="G266" t="b">
+        <v>1</v>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I266" t="b">
+        <v>1</v>
+      </c>
+      <c r="J266" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K266" t="b">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="267">
-      <c r="A267" s="2" t="n">
+      <c r="A267" t="n">
         <v>20</v>
       </c>
-      <c r="B267" s="2" t="inlineStr">
+      <c r="B267" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C267" s="2" t="inlineStr">
+      <c r="C267" t="inlineStr">
         <is>
           <t>(Airport</t>
         </is>
       </c>
-      <c r="D267" s="2" t="n">
+      <c r="D267" t="n">
         <v>7</v>
       </c>
-      <c r="E267" s="2" t="inlineStr">
+      <c r="E267" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F267" s="2" t="inlineStr">
+      <c r="F267" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G267" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H267" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I267" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J267" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K267" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L267" s="2" t="inlineStr">
+      <c r="G267" t="b">
+        <v>1</v>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I267" t="b">
+        <v>1</v>
+      </c>
+      <c r="J267" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K267" t="b">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="268">
-      <c r="A268" s="2" t="n">
+      <c r="A268" t="n">
         <v>20</v>
       </c>
-      <c r="B268" s="2" t="inlineStr">
+      <c r="B268" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C268" s="2" t="inlineStr">
+      <c r="C268" t="inlineStr">
         <is>
           <t>Class</t>
         </is>
       </c>
-      <c r="D268" s="2" t="n">
+      <c r="D268" t="n">
         <v>8</v>
       </c>
-      <c r="E268" s="2" t="inlineStr">
+      <c r="E268" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F268" s="2" t="inlineStr">
+      <c r="F268" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G268" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H268" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I268" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J268" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K268" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L268" s="2" t="inlineStr">
+      <c r="G268" t="b">
+        <v>1</v>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I268" t="b">
+        <v>1</v>
+      </c>
+      <c r="J268" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K268" t="b">
+        <v>1</v>
+      </c>
+      <c r="L268" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="269">
-      <c r="A269" s="2" t="n">
+      <c r="A269" t="n">
         <v>20</v>
       </c>
-      <c r="B269" s="2" t="inlineStr">
+      <c r="B269" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C269" s="2" t="inlineStr">
+      <c r="C269" t="inlineStr">
         <is>
           <t>Airspace</t>
         </is>
       </c>
-      <c r="D269" s="2" t="n">
+      <c r="D269" t="n">
         <v>9</v>
       </c>
-      <c r="E269" s="2" t="inlineStr">
+      <c r="E269" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F269" s="2" t="inlineStr">
+      <c r="F269" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G269" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H269" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I269" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J269" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K269" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L269" s="2" t="inlineStr">
+      <c r="G269" t="b">
+        <v>1</v>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I269" t="b">
+        <v>1</v>
+      </c>
+      <c r="J269" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K269" t="b">
+        <v>1</v>
+      </c>
+      <c r="L269" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="270">
-      <c r="A270" s="2" t="n">
+      <c r="A270" t="n">
         <v>20</v>
       </c>
-      <c r="B270" s="2" t="inlineStr">
+      <c r="B270" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C270" s="2" t="inlineStr">
+      <c r="C270" t="inlineStr">
         <is>
           <t>Unpaved</t>
         </is>
       </c>
-      <c r="D270" s="2" t="n">
+      <c r="D270" t="n">
         <v>10</v>
       </c>
-      <c r="E270" s="2" t="inlineStr">
+      <c r="E270" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F270" s="2" t="inlineStr">
+      <c r="F270" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G270" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H270" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I270" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J270" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K270" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L270" s="2" t="inlineStr">
+      <c r="G270" t="b">
+        <v>1</v>
+      </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I270" t="b">
+        <v>1</v>
+      </c>
+      <c r="J270" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K270" t="b">
+        <v>1</v>
+      </c>
+      <c r="L270" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="271">
-      <c r="A271" s="2" t="n">
+      <c r="A271" t="n">
         <v>20</v>
       </c>
-      <c r="B271" s="2" t="inlineStr">
+      <c r="B271" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C271" s="2" t="inlineStr">
+      <c r="C271" t="inlineStr">
         <is>
           <t>Airports</t>
         </is>
       </c>
-      <c r="D271" s="2" t="n">
+      <c r="D271" t="n">
         <v>11</v>
       </c>
-      <c r="E271" s="2" t="inlineStr">
+      <c r="E271" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F271" s="2" t="inlineStr">
+      <c r="F271" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G271" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H271" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I271" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J271" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K271" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L271" s="2" t="inlineStr">
+      <c r="G271" t="b">
+        <v>1</v>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I271" t="b">
+        <v>1</v>
+      </c>
+      <c r="J271" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K271" t="b">
+        <v>1</v>
+      </c>
+      <c r="L271" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="272">
-      <c r="A272" s="2" t="n">
+      <c r="A272" t="n">
         <v>20</v>
       </c>
-      <c r="B272" s="2" t="inlineStr">
+      <c r="B272" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C272" s="2" t="inlineStr">
+      <c r="C272" t="inlineStr">
         <is>
           <t>Power</t>
         </is>
       </c>
-      <c r="D272" s="2" t="n">
+      <c r="D272" t="n">
         <v>12</v>
       </c>
-      <c r="E272" s="2" t="inlineStr">
+      <c r="E272" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F272" s="2" t="inlineStr">
+      <c r="F272" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G272" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H272" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I272" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J272" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K272" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L272" s="2" t="inlineStr">
+      <c r="G272" t="b">
+        <v>1</v>
+      </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I272" t="b">
+        <v>1</v>
+      </c>
+      <c r="J272" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K272" t="b">
+        <v>1</v>
+      </c>
+      <c r="L272" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="273">
-      <c r="A273" s="2" t="n">
+      <c r="A273" t="n">
         <v>20</v>
       </c>
-      <c r="B273" s="2" t="inlineStr">
+      <c r="B273" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C273" s="2" t="inlineStr">
+      <c r="C273" t="inlineStr">
         <is>
           <t>Plant)</t>
         </is>
       </c>
-      <c r="D273" s="2" t="n">
+      <c r="D273" t="n">
         <v>13</v>
       </c>
-      <c r="E273" s="2" t="inlineStr">
+      <c r="E273" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F273" s="2" t="inlineStr">
+      <c r="F273" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G273" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H273" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I273" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J273" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K273" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L273" s="2" t="inlineStr">
+      <c r="G273" t="b">
+        <v>1</v>
+      </c>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I273" t="b">
+        <v>1</v>
+      </c>
+      <c r="J273" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K273" t="b">
+        <v>1</v>
+      </c>
+      <c r="L273" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -17593,11 +17593,11 @@
         </is>
       </c>
       <c r="I330" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J330" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K330" s="2" t="b">
@@ -17645,11 +17645,11 @@
         </is>
       </c>
       <c r="I331" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J331" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K331" s="2" t="b">
@@ -17685,7 +17685,7 @@
       </c>
       <c r="F332" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G332" s="2" t="b">
@@ -17697,11 +17697,11 @@
         </is>
       </c>
       <c r="I332" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J332" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K332" s="2" t="b">
@@ -17709,7 +17709,7 @@
       </c>
       <c r="L332" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -17749,11 +17749,11 @@
         </is>
       </c>
       <c r="I333" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J333" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K333" s="2" t="b">
@@ -23977,7 +23977,7 @@
       </c>
       <c r="F453" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G453" s="2" t="b">
@@ -23989,11 +23989,11 @@
         </is>
       </c>
       <c r="I453" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J453" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K453" s="2" t="b">
@@ -24001,7 +24001,7 @@
       </c>
       <c r="L453" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -24041,11 +24041,11 @@
         </is>
       </c>
       <c r="I454" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J454" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K454" s="2" t="b">
@@ -24081,7 +24081,7 @@
       </c>
       <c r="F455" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G455" s="2" t="b">
@@ -24093,11 +24093,11 @@
         </is>
       </c>
       <c r="I455" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J455" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K455" s="2" t="b">
@@ -24105,7 +24105,7 @@
       </c>
       <c r="L455" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -24133,7 +24133,7 @@
       </c>
       <c r="F456" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G456" s="2" t="b">
@@ -24145,11 +24145,11 @@
         </is>
       </c>
       <c r="I456" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J456" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K456" s="2" t="b">
@@ -24157,7 +24157,7 @@
       </c>
       <c r="L456" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -24185,7 +24185,7 @@
       </c>
       <c r="F457" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G457" s="2" t="b">
@@ -24197,11 +24197,11 @@
         </is>
       </c>
       <c r="I457" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J457" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K457" s="2" t="b">
@@ -24209,7 +24209,7 @@
       </c>
       <c r="L457" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -24237,7 +24237,7 @@
       </c>
       <c r="F458" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G458" s="2" t="b">
@@ -24249,11 +24249,11 @@
         </is>
       </c>
       <c r="I458" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J458" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K458" s="2" t="b">
@@ -24261,7 +24261,7 @@
       </c>
       <c r="L458" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -24445,81 +24445,81 @@
       </c>
       <c r="F462" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G462" t="b">
+        <v>1</v>
+      </c>
+      <c r="H462" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I462" t="b">
+        <v>1</v>
+      </c>
+      <c r="J462" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K462" t="b">
+        <v>1</v>
+      </c>
+      <c r="L462" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="n">
+        <v>38</v>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>Strong Interference Detected . Be careful when flying long distances .</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>Detected</t>
+        </is>
+      </c>
+      <c r="D463" t="n">
+        <v>2</v>
+      </c>
+      <c r="E463" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G462" t="b">
-        <v>1</v>
-      </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I462" t="b">
-        <v>1</v>
-      </c>
-      <c r="J462" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K462" t="b">
-        <v>1</v>
-      </c>
-      <c r="L462" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="463">
-      <c r="A463" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B463" s="2" t="inlineStr">
-        <is>
-          <t>Strong Interference Detected . Be careful when flying long distances .</t>
-        </is>
-      </c>
-      <c r="C463" s="2" t="inlineStr">
-        <is>
-          <t>Detected</t>
-        </is>
-      </c>
-      <c r="D463" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E463" s="2" t="inlineStr">
+      <c r="F463" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F463" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G463" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H463" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I463" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J463" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K463" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L463" s="2" t="inlineStr">
+      <c r="G463" t="b">
+        <v>1</v>
+      </c>
+      <c r="H463" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I463" t="b">
+        <v>1</v>
+      </c>
+      <c r="J463" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K463" t="b">
+        <v>1</v>
+      </c>
+      <c r="L463" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -25514,106 +25514,106 @@
       </c>
     </row>
     <row r="483">
-      <c r="A483" t="n">
+      <c r="A483" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="B483" t="inlineStr">
+      <c r="B483" s="2" t="inlineStr">
         <is>
           <t>Unknown Error , Cannot Takeoff . Contact DJI support .</t>
         </is>
       </c>
-      <c r="C483" t="inlineStr">
+      <c r="C483" s="2" t="inlineStr">
         <is>
           <t>Cannot</t>
         </is>
       </c>
-      <c r="D483" t="n">
+      <c r="D483" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E483" t="inlineStr">
+      <c r="E483" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F483" t="inlineStr">
+      <c r="F483" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G483" t="b">
-        <v>1</v>
-      </c>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I483" t="b">
-        <v>1</v>
-      </c>
-      <c r="J483" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K483" t="b">
-        <v>1</v>
-      </c>
-      <c r="L483" t="inlineStr">
+      <c r="G483" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H483" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I483" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J483" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K483" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L483" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="484">
-      <c r="A484" t="n">
+      <c r="A484" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="B484" t="inlineStr">
+      <c r="B484" s="2" t="inlineStr">
         <is>
           <t>Unknown Error , Cannot Takeoff . Contact DJI support .</t>
         </is>
       </c>
-      <c r="C484" t="inlineStr">
+      <c r="C484" s="2" t="inlineStr">
         <is>
           <t>Takeoff</t>
         </is>
       </c>
-      <c r="D484" t="n">
+      <c r="D484" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E484" t="inlineStr">
+      <c r="E484" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F484" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G484" t="b">
-        <v>1</v>
-      </c>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I484" t="b">
-        <v>1</v>
-      </c>
-      <c r="J484" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K484" t="b">
-        <v>1</v>
-      </c>
-      <c r="L484" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F484" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G484" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H484" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I484" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J484" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K484" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L484" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_original/ori2/123/word_level_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_original/ori2/123/word_level_predictions_123.xlsx
@@ -4298,210 +4298,210 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="2" t="n">
+      <c r="A75" t="n">
         <v>6</v>
       </c>
-      <c r="B75" s="2" t="inlineStr">
+      <c r="B75" t="inlineStr">
         <is>
           <t>Altitude Less than nnn . Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C75" s="2" t="inlineStr">
+      <c r="C75" t="inlineStr">
         <is>
           <t>Altitude</t>
         </is>
       </c>
-      <c r="D75" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E75" s="2" t="inlineStr">
+      <c r="D75" t="n">
+        <v>0</v>
+      </c>
+      <c r="E75" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F75" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G75" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H75" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I75" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J75" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K75" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L75" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G75" t="b">
+        <v>1</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I75" t="b">
+        <v>1</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K75" t="b">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="2" t="n">
+      <c r="A76" t="n">
         <v>6</v>
       </c>
-      <c r="B76" s="2" t="inlineStr">
+      <c r="B76" t="inlineStr">
         <is>
           <t>Altitude Less than nnn . Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C76" s="2" t="inlineStr">
+      <c r="C76" t="inlineStr">
         <is>
           <t>Less</t>
         </is>
       </c>
-      <c r="D76" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E76" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F76" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G76" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H76" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I76" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J76" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K76" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L76" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="D76" t="n">
+        <v>1</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G76" t="b">
+        <v>1</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I76" t="b">
+        <v>1</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K76" t="b">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="2" t="n">
+      <c r="A77" t="n">
         <v>6</v>
       </c>
-      <c r="B77" s="2" t="inlineStr">
+      <c r="B77" t="inlineStr">
         <is>
           <t>Altitude Less than nnn . Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C77" s="2" t="inlineStr">
+      <c r="C77" t="inlineStr">
         <is>
           <t>than</t>
         </is>
       </c>
-      <c r="D77" s="2" t="n">
+      <c r="D77" t="n">
         <v>2</v>
       </c>
-      <c r="E77" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F77" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G77" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H77" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I77" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J77" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K77" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L77" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G77" t="b">
+        <v>1</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I77" t="b">
+        <v>1</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K77" t="b">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="2" t="n">
+      <c r="A78" t="n">
         <v>6</v>
       </c>
-      <c r="B78" s="2" t="inlineStr">
+      <c r="B78" t="inlineStr">
         <is>
           <t>Altitude Less than nnn . Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C78" s="2" t="inlineStr">
+      <c r="C78" t="inlineStr">
         <is>
           <t>nnn</t>
         </is>
       </c>
-      <c r="D78" s="2" t="n">
+      <c r="D78" t="n">
         <v>3</v>
       </c>
-      <c r="E78" s="2" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F78" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G78" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H78" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I78" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J78" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K78" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L78" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G78" t="b">
+        <v>1</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I78" t="b">
+        <v>1</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K78" t="b">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -6378,106 +6378,106 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="2" t="n">
+      <c r="A115" t="n">
         <v>9</v>
       </c>
-      <c r="B115" s="2" t="inlineStr">
+      <c r="B115" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C115" s="2" t="inlineStr">
+      <c r="C115" t="inlineStr">
         <is>
           <t>Hardware</t>
         </is>
       </c>
-      <c r="D115" s="2" t="n">
+      <c r="D115" t="n">
         <v>4</v>
       </c>
-      <c r="E115" s="2" t="inlineStr">
+      <c r="E115" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F115" s="2" t="inlineStr">
+      <c r="F115" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G115" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H115" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I115" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J115" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K115" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L115" s="2" t="inlineStr">
+      <c r="G115" t="b">
+        <v>1</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I115" t="b">
+        <v>1</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K115" t="b">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="2" t="n">
+      <c r="A116" t="n">
         <v>9</v>
       </c>
-      <c r="B116" s="2" t="inlineStr">
+      <c r="B116" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C116" s="2" t="inlineStr">
+      <c r="C116" t="inlineStr">
         <is>
           <t>malfunction</t>
         </is>
       </c>
-      <c r="D116" s="2" t="n">
+      <c r="D116" t="n">
         <v>5</v>
       </c>
-      <c r="E116" s="2" t="inlineStr">
+      <c r="E116" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F116" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G116" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H116" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I116" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J116" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K116" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L116" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G116" t="b">
+        <v>1</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I116" t="b">
+        <v>1</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K116" t="b">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12693,7 +12693,7 @@
       </c>
       <c r="F236" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G236" s="2" t="b">
@@ -12717,7 +12717,7 @@
       </c>
       <c r="L236" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13918,728 +13918,728 @@
       </c>
     </row>
     <row r="260">
-      <c r="A260" t="n">
+      <c r="A260" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B260" t="inlineStr">
+      <c r="B260" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C260" t="inlineStr">
+      <c r="C260" s="2" t="inlineStr">
         <is>
           <t>GEO:</t>
         </is>
       </c>
-      <c r="D260" t="n">
-        <v>0</v>
-      </c>
-      <c r="E260" t="inlineStr">
+      <c r="D260" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E260" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F260" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G260" t="b">
-        <v>1</v>
-      </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I260" t="b">
-        <v>1</v>
-      </c>
-      <c r="J260" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K260" t="b">
-        <v>1</v>
-      </c>
-      <c r="L260" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F260" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G260" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H260" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I260" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J260" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K260" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L260" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="261">
-      <c r="A261" t="n">
+      <c r="A261" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B261" t="inlineStr">
+      <c r="B261" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C261" t="inlineStr">
+      <c r="C261" s="2" t="inlineStr">
         <is>
           <t>You</t>
         </is>
       </c>
-      <c r="D261" t="n">
-        <v>1</v>
-      </c>
-      <c r="E261" t="inlineStr">
+      <c r="D261" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E261" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F261" t="inlineStr">
+      <c r="F261" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G261" t="b">
-        <v>1</v>
-      </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I261" t="b">
-        <v>1</v>
-      </c>
-      <c r="J261" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K261" t="b">
-        <v>1</v>
-      </c>
-      <c r="L261" t="inlineStr">
+      <c r="G261" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H261" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I261" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J261" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K261" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L261" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="262">
-      <c r="A262" t="n">
+      <c r="A262" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B262" t="inlineStr">
+      <c r="B262" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C262" t="inlineStr">
+      <c r="C262" s="2" t="inlineStr">
         <is>
           <t>are</t>
         </is>
       </c>
-      <c r="D262" t="n">
+      <c r="D262" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E262" t="inlineStr">
+      <c r="E262" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F262" t="inlineStr">
+      <c r="F262" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G262" t="b">
-        <v>1</v>
-      </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I262" t="b">
-        <v>1</v>
-      </c>
-      <c r="J262" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K262" t="b">
-        <v>1</v>
-      </c>
-      <c r="L262" t="inlineStr">
+      <c r="G262" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H262" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I262" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J262" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K262" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L262" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="263">
-      <c r="A263" t="n">
+      <c r="A263" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B263" t="inlineStr">
+      <c r="B263" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C263" t="inlineStr">
+      <c r="C263" s="2" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D263" t="n">
+      <c r="D263" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E263" t="inlineStr">
+      <c r="E263" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F263" t="inlineStr">
+      <c r="F263" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G263" t="b">
-        <v>1</v>
-      </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I263" t="b">
-        <v>1</v>
-      </c>
-      <c r="J263" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K263" t="b">
-        <v>1</v>
-      </c>
-      <c r="L263" t="inlineStr">
+      <c r="G263" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H263" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I263" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J263" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K263" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L263" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="264">
-      <c r="A264" t="n">
+      <c r="A264" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B264" t="inlineStr">
+      <c r="B264" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C264" t="inlineStr">
+      <c r="C264" s="2" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D264" t="n">
+      <c r="D264" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E264" t="inlineStr">
+      <c r="E264" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F264" t="inlineStr">
+      <c r="F264" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G264" t="b">
-        <v>1</v>
-      </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I264" t="b">
-        <v>1</v>
-      </c>
-      <c r="J264" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K264" t="b">
-        <v>1</v>
-      </c>
-      <c r="L264" t="inlineStr">
+      <c r="G264" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H264" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I264" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J264" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K264" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L264" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="265">
-      <c r="A265" t="n">
+      <c r="A265" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B265" t="inlineStr">
+      <c r="B265" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C265" t="inlineStr">
+      <c r="C265" s="2" t="inlineStr">
         <is>
           <t>Warning</t>
         </is>
       </c>
-      <c r="D265" t="n">
+      <c r="D265" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E265" t="inlineStr">
+      <c r="E265" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F265" t="inlineStr">
+      <c r="F265" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G265" t="b">
-        <v>1</v>
-      </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I265" t="b">
-        <v>1</v>
-      </c>
-      <c r="J265" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K265" t="b">
-        <v>1</v>
-      </c>
-      <c r="L265" t="inlineStr">
+      <c r="G265" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H265" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I265" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J265" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K265" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L265" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="266">
-      <c r="A266" t="n">
+      <c r="A266" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B266" t="inlineStr">
+      <c r="B266" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C266" t="inlineStr">
+      <c r="C266" s="2" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="D266" t="n">
+      <c r="D266" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E266" t="inlineStr">
+      <c r="E266" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F266" t="inlineStr">
+      <c r="F266" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G266" t="b">
-        <v>1</v>
-      </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I266" t="b">
-        <v>1</v>
-      </c>
-      <c r="J266" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K266" t="b">
-        <v>1</v>
-      </c>
-      <c r="L266" t="inlineStr">
+      <c r="G266" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H266" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I266" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J266" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K266" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L266" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="267">
-      <c r="A267" t="n">
+      <c r="A267" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B267" t="inlineStr">
+      <c r="B267" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C267" t="inlineStr">
+      <c r="C267" s="2" t="inlineStr">
         <is>
           <t>(Airport</t>
         </is>
       </c>
-      <c r="D267" t="n">
+      <c r="D267" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E267" t="inlineStr">
+      <c r="E267" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F267" t="inlineStr">
+      <c r="F267" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G267" t="b">
-        <v>1</v>
-      </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I267" t="b">
-        <v>1</v>
-      </c>
-      <c r="J267" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K267" t="b">
-        <v>1</v>
-      </c>
-      <c r="L267" t="inlineStr">
+      <c r="G267" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H267" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I267" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J267" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K267" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L267" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="268">
-      <c r="A268" t="n">
+      <c r="A268" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B268" t="inlineStr">
+      <c r="B268" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C268" t="inlineStr">
+      <c r="C268" s="2" t="inlineStr">
         <is>
           <t>Class</t>
         </is>
       </c>
-      <c r="D268" t="n">
+      <c r="D268" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E268" t="inlineStr">
+      <c r="E268" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F268" t="inlineStr">
+      <c r="F268" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G268" t="b">
-        <v>1</v>
-      </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I268" t="b">
-        <v>1</v>
-      </c>
-      <c r="J268" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K268" t="b">
-        <v>1</v>
-      </c>
-      <c r="L268" t="inlineStr">
+      <c r="G268" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H268" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I268" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J268" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K268" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L268" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="269">
-      <c r="A269" t="n">
+      <c r="A269" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B269" t="inlineStr">
+      <c r="B269" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C269" t="inlineStr">
+      <c r="C269" s="2" t="inlineStr">
         <is>
           <t>Airspace</t>
         </is>
       </c>
-      <c r="D269" t="n">
+      <c r="D269" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E269" t="inlineStr">
+      <c r="E269" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F269" t="inlineStr">
+      <c r="F269" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G269" t="b">
-        <v>1</v>
-      </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I269" t="b">
-        <v>1</v>
-      </c>
-      <c r="J269" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K269" t="b">
-        <v>1</v>
-      </c>
-      <c r="L269" t="inlineStr">
+      <c r="G269" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H269" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I269" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J269" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K269" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L269" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="270">
-      <c r="A270" t="n">
+      <c r="A270" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B270" t="inlineStr">
+      <c r="B270" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C270" t="inlineStr">
+      <c r="C270" s="2" t="inlineStr">
         <is>
           <t>Unpaved</t>
         </is>
       </c>
-      <c r="D270" t="n">
+      <c r="D270" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E270" t="inlineStr">
+      <c r="E270" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F270" t="inlineStr">
+      <c r="F270" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G270" t="b">
-        <v>1</v>
-      </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I270" t="b">
-        <v>1</v>
-      </c>
-      <c r="J270" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K270" t="b">
-        <v>1</v>
-      </c>
-      <c r="L270" t="inlineStr">
+      <c r="G270" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H270" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I270" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J270" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K270" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L270" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="271">
-      <c r="A271" t="n">
+      <c r="A271" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B271" t="inlineStr">
+      <c r="B271" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C271" t="inlineStr">
+      <c r="C271" s="2" t="inlineStr">
         <is>
           <t>Airports</t>
         </is>
       </c>
-      <c r="D271" t="n">
+      <c r="D271" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E271" t="inlineStr">
+      <c r="E271" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F271" t="inlineStr">
+      <c r="F271" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G271" t="b">
-        <v>1</v>
-      </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I271" t="b">
-        <v>1</v>
-      </c>
-      <c r="J271" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K271" t="b">
-        <v>1</v>
-      </c>
-      <c r="L271" t="inlineStr">
+      <c r="G271" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H271" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I271" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J271" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K271" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L271" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="272">
-      <c r="A272" t="n">
+      <c r="A272" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B272" t="inlineStr">
+      <c r="B272" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C272" t="inlineStr">
+      <c r="C272" s="2" t="inlineStr">
         <is>
           <t>Power</t>
         </is>
       </c>
-      <c r="D272" t="n">
+      <c r="D272" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E272" t="inlineStr">
+      <c r="E272" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F272" t="inlineStr">
+      <c r="F272" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G272" t="b">
-        <v>1</v>
-      </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I272" t="b">
-        <v>1</v>
-      </c>
-      <c r="J272" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K272" t="b">
-        <v>1</v>
-      </c>
-      <c r="L272" t="inlineStr">
+      <c r="G272" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H272" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I272" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J272" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K272" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L272" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="273">
-      <c r="A273" t="n">
+      <c r="A273" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B273" t="inlineStr">
+      <c r="B273" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C273" t="inlineStr">
+      <c r="C273" s="2" t="inlineStr">
         <is>
           <t>Plant)</t>
         </is>
       </c>
-      <c r="D273" t="n">
+      <c r="D273" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E273" t="inlineStr">
+      <c r="E273" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F273" t="inlineStr">
+      <c r="F273" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G273" t="b">
-        <v>1</v>
-      </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I273" t="b">
-        <v>1</v>
-      </c>
-      <c r="J273" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K273" t="b">
-        <v>1</v>
-      </c>
-      <c r="L273" t="inlineStr">
+      <c r="G273" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H273" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I273" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J273" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K273" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L273" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -17593,11 +17593,11 @@
         </is>
       </c>
       <c r="I330" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J330" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K330" s="2" t="b">
@@ -17645,11 +17645,11 @@
         </is>
       </c>
       <c r="I331" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J331" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K331" s="2" t="b">
@@ -17685,7 +17685,7 @@
       </c>
       <c r="F332" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G332" s="2" t="b">
@@ -17697,11 +17697,11 @@
         </is>
       </c>
       <c r="I332" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J332" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K332" s="2" t="b">
@@ -17709,7 +17709,7 @@
       </c>
       <c r="L332" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -17749,11 +17749,11 @@
         </is>
       </c>
       <c r="I333" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J333" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K333" s="2" t="b">
@@ -23977,7 +23977,7 @@
       </c>
       <c r="F453" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G453" s="2" t="b">
@@ -23989,11 +23989,11 @@
         </is>
       </c>
       <c r="I453" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J453" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K453" s="2" t="b">
@@ -24001,7 +24001,7 @@
       </c>
       <c r="L453" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -24041,11 +24041,11 @@
         </is>
       </c>
       <c r="I454" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J454" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K454" s="2" t="b">
@@ -24081,7 +24081,7 @@
       </c>
       <c r="F455" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G455" s="2" t="b">
@@ -24093,11 +24093,11 @@
         </is>
       </c>
       <c r="I455" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J455" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K455" s="2" t="b">
@@ -24105,7 +24105,7 @@
       </c>
       <c r="L455" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -24133,7 +24133,7 @@
       </c>
       <c r="F456" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G456" s="2" t="b">
@@ -24145,11 +24145,11 @@
         </is>
       </c>
       <c r="I456" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J456" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K456" s="2" t="b">
@@ -24157,7 +24157,7 @@
       </c>
       <c r="L456" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -24185,7 +24185,7 @@
       </c>
       <c r="F457" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G457" s="2" t="b">
@@ -24197,11 +24197,11 @@
         </is>
       </c>
       <c r="I457" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J457" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K457" s="2" t="b">
@@ -24209,7 +24209,7 @@
       </c>
       <c r="L457" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -24237,7 +24237,7 @@
       </c>
       <c r="F458" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G458" s="2" t="b">
@@ -24249,11 +24249,11 @@
         </is>
       </c>
       <c r="I458" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J458" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K458" s="2" t="b">
@@ -24261,7 +24261,7 @@
       </c>
       <c r="L458" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -24445,7 +24445,7 @@
       </c>
       <c r="F462" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G462" t="b">
@@ -24469,57 +24469,57 @@
       </c>
       <c r="L462" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="463">
-      <c r="A463" t="n">
+      <c r="A463" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="B463" t="inlineStr">
+      <c r="B463" s="2" t="inlineStr">
         <is>
           <t>Strong Interference Detected . Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C463" t="inlineStr">
+      <c r="C463" s="2" t="inlineStr">
         <is>
           <t>Detected</t>
         </is>
       </c>
-      <c r="D463" t="n">
+      <c r="D463" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E463" t="inlineStr">
+      <c r="E463" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F463" t="inlineStr">
+      <c r="F463" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G463" t="b">
-        <v>1</v>
-      </c>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I463" t="b">
-        <v>1</v>
-      </c>
-      <c r="J463" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K463" t="b">
-        <v>1</v>
-      </c>
-      <c r="L463" t="inlineStr">
+      <c r="G463" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H463" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I463" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J463" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K463" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L463" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -25514,106 +25514,106 @@
       </c>
     </row>
     <row r="483">
-      <c r="A483" s="2" t="n">
+      <c r="A483" t="n">
         <v>40</v>
       </c>
-      <c r="B483" s="2" t="inlineStr">
+      <c r="B483" t="inlineStr">
         <is>
           <t>Unknown Error , Cannot Takeoff . Contact DJI support .</t>
         </is>
       </c>
-      <c r="C483" s="2" t="inlineStr">
+      <c r="C483" t="inlineStr">
         <is>
           <t>Cannot</t>
         </is>
       </c>
-      <c r="D483" s="2" t="n">
+      <c r="D483" t="n">
         <v>3</v>
       </c>
-      <c r="E483" s="2" t="inlineStr">
+      <c r="E483" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F483" s="2" t="inlineStr">
+      <c r="F483" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G483" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H483" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I483" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J483" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K483" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L483" s="2" t="inlineStr">
+      <c r="G483" t="b">
+        <v>1</v>
+      </c>
+      <c r="H483" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I483" t="b">
+        <v>1</v>
+      </c>
+      <c r="J483" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K483" t="b">
+        <v>1</v>
+      </c>
+      <c r="L483" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="484">
-      <c r="A484" s="2" t="n">
+      <c r="A484" t="n">
         <v>40</v>
       </c>
-      <c r="B484" s="2" t="inlineStr">
+      <c r="B484" t="inlineStr">
         <is>
           <t>Unknown Error , Cannot Takeoff . Contact DJI support .</t>
         </is>
       </c>
-      <c r="C484" s="2" t="inlineStr">
+      <c r="C484" t="inlineStr">
         <is>
           <t>Takeoff</t>
         </is>
       </c>
-      <c r="D484" s="2" t="n">
+      <c r="D484" t="n">
         <v>4</v>
       </c>
-      <c r="E484" s="2" t="inlineStr">
+      <c r="E484" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F484" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G484" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H484" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I484" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J484" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K484" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L484" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F484" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G484" t="b">
+        <v>1</v>
+      </c>
+      <c r="H484" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I484" t="b">
+        <v>1</v>
+      </c>
+      <c r="J484" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K484" t="b">
+        <v>1</v>
+      </c>
+      <c r="L484" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
